--- a/data/georgia_census/imereti/khoni/education_graduates.xlsx
+++ b/data/georgia_census/imereti/khoni/education_graduates.xlsx
@@ -1853,13 +1853,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125E114E-7B29-4D7F-883A-F964FA564CEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8928AA67-E46D-4D06-B83F-F75A6399C71C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0531C0E4-BF85-471B-A07E-C974737515B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DF05EE-E848-42A9-BFA0-84B5A5536951}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0639DE0-C73E-4568-BF82-6E34CF0F4F64}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791C7BF8-43FC-46BA-8117-C29FDBF4F274}"/>
 </file>